--- a/BlockGame.xlsx
+++ b/BlockGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C257A276-09C9-476C-92CD-DC3659F48A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7486B850-BA2C-4A59-A35E-99D296172DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F2D09778-1B94-4B57-B7B0-F2BC2F87E8A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -195,6 +195,90 @@
   </si>
   <si>
     <t>slanderthyfaith</t>
+  </si>
+  <si>
+    <t>eternalfragment</t>
+  </si>
+  <si>
+    <t>Callabash</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>Forge_Apprentice</t>
+  </si>
+  <si>
+    <t>Fari Spei</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>juhig</t>
+  </si>
+  <si>
+    <t>Honeyside</t>
+  </si>
+  <si>
+    <t>king_GGC</t>
+  </si>
+  <si>
+    <t>Warlord</t>
+  </si>
+  <si>
+    <t>Church of Beans</t>
+  </si>
+  <si>
+    <t>Barbarians</t>
+  </si>
+  <si>
+    <t>notIrma</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Bosa1</t>
+  </si>
+  <si>
+    <t>Hnx</t>
+  </si>
+  <si>
+    <t>benhaze1</t>
+  </si>
+  <si>
+    <t>JavaDevel</t>
+  </si>
+  <si>
+    <t>Dabbpool</t>
+  </si>
+  <si>
+    <t>freefall984</t>
+  </si>
+  <si>
+    <t>Drak_Raivo</t>
+  </si>
+  <si>
+    <t>Pawkbeesh</t>
+  </si>
+  <si>
+    <t>ggkidex</t>
+  </si>
+  <si>
+    <t>Hermit</t>
+  </si>
+  <si>
+    <t>tower town</t>
+  </si>
+  <si>
+    <t>heypeanuts</t>
+  </si>
+  <si>
+    <t>PaleBlueZebra</t>
+  </si>
+  <si>
+    <t>adion123</t>
   </si>
 </sst>
 </file>
@@ -567,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38793283-061B-4DBF-A399-3AEFFE0CF45D}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +745,15 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -736,6 +829,15 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -769,6 +871,15 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -860,6 +971,15 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -877,7 +997,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -924,6 +1044,9 @@
       <c r="D29" t="s">
         <v>47</v>
       </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -932,6 +1055,15 @@
       <c r="B30" t="s">
         <v>49</v>
       </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -940,88 +1072,190 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1034,6 +1268,261 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
